--- a/25th Feb Batch/New Microsoft Excel Worksheet (3).xlsx
+++ b/25th Feb Batch/New Microsoft Excel Worksheet (3).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th Feb Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA71D99-86DC-4A57-8C46-FB3017A5D4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D6EEFC-8BBE-46F6-A22A-53730E9FB409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +71,18 @@
   </si>
   <si>
     <t>ypred</t>
+  </si>
+  <si>
+    <t>if my salary is highly co related with the experience</t>
+  </si>
+  <si>
+    <t>The correlation value will be near to  1</t>
+  </si>
+  <si>
+    <t>if my salary is not properly co related with the experience</t>
+  </si>
+  <si>
+    <t>The correlation value will be far from 1</t>
   </si>
 </sst>
 </file>
@@ -399,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -630,4 +643,68 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4EE554-1E0D-4C39-A7B1-BF8453B1E67D}">
+  <dimension ref="B3:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="26.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>